--- a/src/utils/excel-data.xlsx
+++ b/src/utils/excel-data.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Blog\Learn\App\CropID\archive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Blog\GitHub\CropID\src\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE964BC-0D6A-4FDB-9A02-238448822132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9B6DD8-077E-42B4-85C6-E2836FB4C06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="847" firstSheet="3" activeTab="14" xr2:uid="{096C9FAE-DC65-42E7-9532-324409CBB1AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="847" firstSheet="1" activeTab="1" xr2:uid="{096C9FAE-DC65-42E7-9532-324409CBB1AD}"/>
   </bookViews>
   <sheets>
     <sheet name="TEST" sheetId="15" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="17" r:id="rId2"/>
+    <sheet name="Sheet 1" sheetId="17" r:id="rId2"/>
     <sheet name="AVS-RAKRAL" sheetId="1" r:id="rId3"/>
     <sheet name="AVS-F" sheetId="8" r:id="rId4"/>
     <sheet name="AVS-RPT" sheetId="16" r:id="rId5"/>
@@ -1918,7 +1918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CA380A-2E51-43B1-B44A-0B233E19F869}">
   <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -3181,8 +3181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33ED886F-F38A-4300-8F5D-73DF309E02E9}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/utils/excel-data.xlsx
+++ b/src/utils/excel-data.xlsx
@@ -8,27 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Blog\GitHub\CropID\src\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9B6DD8-077E-42B4-85C6-E2836FB4C06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FC6B24-892F-4343-9964-8F7EA3E26A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="847" firstSheet="1" activeTab="1" xr2:uid="{096C9FAE-DC65-42E7-9532-324409CBB1AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="847" xr2:uid="{096C9FAE-DC65-42E7-9532-324409CBB1AD}"/>
   </bookViews>
   <sheets>
-    <sheet name="TEST" sheetId="15" r:id="rId1"/>
-    <sheet name="Sheet 1" sheetId="17" r:id="rId2"/>
-    <sheet name="AVS-RAKRAL" sheetId="1" r:id="rId3"/>
-    <sheet name="AVS-F" sheetId="8" r:id="rId4"/>
-    <sheet name="AVS-RPT" sheetId="16" r:id="rId5"/>
-    <sheet name="AVS-RBSL-RBA" sheetId="10" r:id="rId6"/>
-    <sheet name="AVS-RBSLG" sheetId="11" r:id="rId7"/>
-    <sheet name="LPT-LPN" sheetId="4" r:id="rId8"/>
-    <sheet name="LAB" sheetId="2" r:id="rId9"/>
-    <sheet name="ILD" sheetId="3" r:id="rId10"/>
-    <sheet name="LDG" sheetId="12" r:id="rId11"/>
-    <sheet name="LDP" sheetId="13" r:id="rId12"/>
-    <sheet name="LDS-NLD-NBD" sheetId="5" r:id="rId13"/>
-    <sheet name="DLD" sheetId="6" r:id="rId14"/>
-    <sheet name="STRESS" sheetId="7" r:id="rId15"/>
-    <sheet name="INP-NPA-NBA" sheetId="14" r:id="rId16"/>
+    <sheet name="Perkecambahan" sheetId="18" r:id="rId1"/>
+    <sheet name="AVS-RAKRAL" sheetId="1" r:id="rId2"/>
+    <sheet name="AVS-F" sheetId="8" r:id="rId3"/>
+    <sheet name="AVS-RPT" sheetId="16" r:id="rId4"/>
+    <sheet name="AVS-RBSL-RBA" sheetId="10" r:id="rId5"/>
+    <sheet name="AVS-RBSLG" sheetId="11" r:id="rId6"/>
+    <sheet name="LPT-LPN" sheetId="4" r:id="rId7"/>
+    <sheet name="LAB" sheetId="2" r:id="rId8"/>
+    <sheet name="ILD" sheetId="3" r:id="rId9"/>
+    <sheet name="LDG" sheetId="12" r:id="rId10"/>
+    <sheet name="LDP" sheetId="13" r:id="rId11"/>
+    <sheet name="LDS-NLD-NBD" sheetId="5" r:id="rId12"/>
+    <sheet name="DLD" sheetId="6" r:id="rId13"/>
+    <sheet name="STRESS" sheetId="7" r:id="rId14"/>
+    <sheet name="INP-NPA-NBA" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="168">
   <si>
     <t>Perlakuan</t>
   </si>
@@ -549,12 +548,6 @@
   </si>
   <si>
     <t>Kelompok (K)</t>
-  </si>
-  <si>
-    <t>Genotipe</t>
-  </si>
-  <si>
-    <t>Tinggi</t>
   </si>
   <si>
     <t>Test</t>
@@ -608,7 +601,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -621,9 +614,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -938,313 +928,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285CF1D9-27B0-45A0-A7F7-6788B3516837}">
-  <dimension ref="A1:H37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33E5385-4400-4B06-AF49-FD823F626697}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2">
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>12.26</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>13.64</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4">
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>17.7</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>18.920000000000002</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>22.98</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>27.82</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>14.26</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>15.64</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>19.7</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>20.92</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>24.98</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>29.82</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1252,73 +1040,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0713783-9E09-45B6-9139-95FDF62F26DB}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>4250</v>
-      </c>
-      <c r="B2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1050</v>
-      </c>
-      <c r="B3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1900</v>
-      </c>
-      <c r="B4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2300</v>
-      </c>
-      <c r="B5">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>800</v>
-      </c>
-      <c r="B6">
-        <v>4000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB90EF2-75B8-4133-8352-490D3CB61DB3}">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -1493,7 +1214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F539260C-9B60-4609-941A-AC2097129C26}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -1701,7 +1422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5A728E-F26A-4708-A497-E7751E57E0EB}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -1820,7 +1541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A721BFB7-73B0-4C94-A130-1000CE4C5E92}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -1914,7 +1635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CA380A-2E51-43B1-B44A-0B233E19F869}">
   <dimension ref="A1:C93"/>
   <sheetViews>
@@ -1937,7 +1658,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1948,7 +1669,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -2952,7 +2673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72611145-1A68-44B5-ABBB-53FDC4D5D030}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -3178,428 +2899,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33ED886F-F38A-4300-8F5D-73DF309E02E9}">
-  <dimension ref="A1:C37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>32</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>33</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
-        <v>60.3125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>11</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
-        <v>45.55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>12</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>47.9375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>13</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>44.225000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>14</v>
-      </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6">
-        <v>62.625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>15</v>
-      </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6">
-        <v>61.225000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>16</v>
-      </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6">
-        <v>49.424999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>17</v>
-      </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6">
-        <v>40.875</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>18</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6">
-        <v>51.875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>19</v>
-      </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6">
-        <v>59.03125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>20</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6">
-        <v>44.193750000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>32</v>
-      </c>
-      <c r="B14" s="6">
-        <v>2</v>
-      </c>
-      <c r="C14" s="6">
-        <v>45.643749999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>33</v>
-      </c>
-      <c r="B15" s="6">
-        <v>2</v>
-      </c>
-      <c r="C15" s="6">
-        <v>59.424999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>11</v>
-      </c>
-      <c r="B16" s="6">
-        <v>2</v>
-      </c>
-      <c r="C16" s="6">
-        <v>50.174999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>12</v>
-      </c>
-      <c r="B17" s="6">
-        <v>2</v>
-      </c>
-      <c r="C17" s="6">
-        <v>43.287500000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>13</v>
-      </c>
-      <c r="B18" s="6">
-        <v>2</v>
-      </c>
-      <c r="C18" s="6">
-        <v>47.125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>14</v>
-      </c>
-      <c r="B19" s="6">
-        <v>2</v>
-      </c>
-      <c r="C19" s="6">
-        <v>63.037499999999994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
-        <v>15</v>
-      </c>
-      <c r="B20" s="6">
-        <v>2</v>
-      </c>
-      <c r="C20" s="6">
-        <v>54.042500000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
-        <v>16</v>
-      </c>
-      <c r="B21" s="6">
-        <v>2</v>
-      </c>
-      <c r="C21" s="6">
-        <v>42.4375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>17</v>
-      </c>
-      <c r="B22" s="6">
-        <v>2</v>
-      </c>
-      <c r="C22" s="6">
-        <v>43.712499999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
-        <v>18</v>
-      </c>
-      <c r="B23" s="6">
-        <v>2</v>
-      </c>
-      <c r="C23" s="6">
-        <v>46.024999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
-        <v>19</v>
-      </c>
-      <c r="B24" s="6">
-        <v>2</v>
-      </c>
-      <c r="C24" s="6">
-        <v>59.387500000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
-        <v>20</v>
-      </c>
-      <c r="B25" s="6">
-        <v>2</v>
-      </c>
-      <c r="C25" s="6">
-        <v>50.64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
-        <v>32</v>
-      </c>
-      <c r="B26" s="6">
-        <v>3</v>
-      </c>
-      <c r="C26" s="6">
-        <v>51.352500000000006</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
-        <v>33</v>
-      </c>
-      <c r="B27" s="6">
-        <v>3</v>
-      </c>
-      <c r="C27" s="6">
-        <v>50.625</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
-        <v>11</v>
-      </c>
-      <c r="B28" s="6">
-        <v>3</v>
-      </c>
-      <c r="C28" s="6">
-        <v>45.875</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
-        <v>12</v>
-      </c>
-      <c r="B29" s="6">
-        <v>3</v>
-      </c>
-      <c r="C29" s="6">
-        <v>47.725000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
-        <v>13</v>
-      </c>
-      <c r="B30" s="6">
-        <v>3</v>
-      </c>
-      <c r="C30" s="6">
-        <v>45.612499999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
-        <v>14</v>
-      </c>
-      <c r="B31" s="6">
-        <v>3</v>
-      </c>
-      <c r="C31" s="6">
-        <v>60.837499999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
-        <v>15</v>
-      </c>
-      <c r="B32" s="6">
-        <v>3</v>
-      </c>
-      <c r="C32" s="6">
-        <v>54.15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
-        <v>16</v>
-      </c>
-      <c r="B33" s="6">
-        <v>3</v>
-      </c>
-      <c r="C33" s="6">
-        <v>46.537500000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
-        <v>17</v>
-      </c>
-      <c r="B34" s="6">
-        <v>3</v>
-      </c>
-      <c r="C34" s="6">
-        <v>50.625</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
-        <v>18</v>
-      </c>
-      <c r="B35" s="6">
-        <v>3</v>
-      </c>
-      <c r="C35" s="6">
-        <v>54.075000000000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
-        <v>19</v>
-      </c>
-      <c r="B36" s="6">
-        <v>3</v>
-      </c>
-      <c r="C36" s="6">
-        <v>55.45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
-        <v>20</v>
-      </c>
-      <c r="B37" s="6">
-        <v>3</v>
-      </c>
-      <c r="C37" s="6">
-        <v>44.55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2313501B-9A2C-4F98-B631-A495CA446907}">
   <dimension ref="A1:F22"/>
   <sheetViews>
@@ -4054,7 +3353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC26740-55D7-4934-8BFB-A624633AA4EC}">
   <dimension ref="A1:G50"/>
   <sheetViews>
@@ -4840,7 +4139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1201043A-F673-47BE-9A60-D7D99DC7BE59}">
   <dimension ref="A1:D49"/>
   <sheetViews>
@@ -5545,7 +4844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB542FC-D698-4EC5-9135-FDCDBAA586F6}">
   <dimension ref="A1:I22"/>
   <sheetViews>
@@ -5902,7 +5201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EC5D3C-EC85-41C0-BA99-82981784E2E7}">
   <dimension ref="A1:J26"/>
   <sheetViews>
@@ -6435,7 +5734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76446A86-0B2B-4F75-BDC7-C7DD797C6505}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -6577,7 +5876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDF65D8-7553-4354-AD06-5B2B448F7DE1}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -6692,4 +5991,71 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0713783-9E09-45B6-9139-95FDF62F26DB}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>4250</v>
+      </c>
+      <c r="B2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1050</v>
+      </c>
+      <c r="B3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1900</v>
+      </c>
+      <c r="B4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2300</v>
+      </c>
+      <c r="B5">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>800</v>
+      </c>
+      <c r="B6">
+        <v>4000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>